--- a/02_MasterWifoMannheim/99_Backup/Course156.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course156.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD300D369A3B923115995C8F27D41FE89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11A83595-04FD-4D80-9C0F-3B6C10230920}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 510 Sustainable Operations</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>and social perspective. pressure to become more sustainable and to take responsibility for the environmental and social impact of their activities. This poses challenges for traditional business models and practices. creation, in their operations and supply chains. This module – jointly offered by all chairs of the broad analysis of sustainability from the operations and supply chain perspective, and illustrates the potential of operations management to strategically contribute to the economic, environmental, and social performance of firms. Topics include sustainable product and service design, lean and green operations, closed-loop supply chains, and sustainability in procurement.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>The main intended learning outcome is a sound understanding of how to tackle sustainability goals in the economic reality of matching supply and demand. Participants will learn how to effectively lessen the negative environmental and social impacts of firms while maintaining their competitiveness. Special emphasis is put on analytical approaches and practical insights that illustrate concepts and challenges. into a broader, interdisciplinary and strategic context.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on registration:[Website of the Chair / “Student Portal”]</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 8</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (90 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work –</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Christoph Bode Prof. Dr. Moritz Fleischmann Prof. Dr. Cornelia Schön Prof. Dr. Raik Stolletz</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OPM 510 Sustainable Operations</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>and social perspective. pressure to become more sustainable and to take responsibility for the environmental and social impact of their activities. This poses challenges for traditional business models and practices. creation, in their operations and supply chains. This module – jointly offered by all chairs of the broad analysis of sustainability from the operations and supply chain perspective, and illustrates the potential of operations management to strategically contribute to the economic, environmental, and social performance of firms. Topics include sustainable product and service design, lean and green operations, closed-loop supply chains, and sustainability in procurement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The main intended learning outcome is a sound understanding of how to tackle sustainability goals in the economic reality of matching supply and demand. Participants will learn how to effectively lessen the negative environmental and social impacts of firms while maintaining their competitiveness. Special emphasis is put on analytical approaches and practical insights that illustrate concepts and challenges. into a broader, interdisciplinary and strategic context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on registration:[Website of the Chair / “Student Portal”]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (90 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work –</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Christoph Bode Prof. Dr. Moritz Fleischmann Prof. Dr. Cornelia Schön Prof. Dr. Raik Stolletz</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
